--- a/Admin and Documentation/DataWeek5.xlsx
+++ b/Admin and Documentation/DataWeek5.xlsx
@@ -1258,10 +1258,10 @@
   <dimension ref="A1:M187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Admin and Documentation/DataWeek5.xlsx
+++ b/Admin and Documentation/DataWeek5.xlsx
@@ -1258,10 +1258,10 @@
   <dimension ref="A1:M187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Admin and Documentation/DataWeek5.xlsx
+++ b/Admin and Documentation/DataWeek5.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1258,10 +1258,10 @@
   <dimension ref="A1:M187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomRight" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Admin and Documentation/DataWeek5.xlsx
+++ b/Admin and Documentation/DataWeek5.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="188">
   <si>
     <t>Data Description</t>
   </si>
@@ -540,18 +540,6 @@
   </si>
   <si>
     <t>OSPrice2</t>
-  </si>
-  <si>
-    <t>Outdoor Shield Quantity 2</t>
-  </si>
-  <si>
-    <t>OSQuantity2</t>
-  </si>
-  <si>
-    <t>Indoor Shield Quantity 2</t>
-  </si>
-  <si>
-    <t>ISQuantity2</t>
   </si>
   <si>
     <t>Indoor Shield Price 2</t>
@@ -1255,13 +1243,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M187"/>
+  <dimension ref="A1:M185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B48" sqref="B48"/>
+      <selection pane="bottomRight" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1757,7 +1745,7 @@
         <v>63</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>64</v>
@@ -1875,7 +1863,7 @@
         <v>79</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>75</v>
@@ -1908,7 +1896,7 @@
         <v>81</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>75</v>
@@ -1941,7 +1929,7 @@
         <v>82</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>83</v>
@@ -1972,7 +1960,7 @@
         <v>87</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>83</v>
@@ -2003,7 +1991,7 @@
         <v>88</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>83</v>
@@ -2060,23 +2048,25 @@
       </c>
       <c r="M26" s="14"/>
     </row>
-    <row r="27" spans="1:13" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>172</v>
+        <v>92</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>83</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="15"/>
+        <v>14</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="G27" s="15"/>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
@@ -2091,10 +2081,10 @@
     </row>
     <row r="28" spans="1:13" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>92</v>
+        <v>170</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>93</v>
+        <v>171</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>83</v>
@@ -2120,25 +2110,21 @@
       </c>
       <c r="M28" s="14"/>
     </row>
-    <row r="29" spans="1:13" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>83</v>
+        <v>95</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>14</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
@@ -2151,21 +2137,25 @@
       </c>
       <c r="M29" s="14"/>
     </row>
-    <row r="30" spans="1:13" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>91</v>
+        <v>97</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>83</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
+        <v>84</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="G30" s="15"/>
       <c r="H30" s="16"/>
       <c r="I30" s="16"/>
@@ -2178,21 +2168,25 @@
       </c>
       <c r="M30" s="14"/>
     </row>
-    <row r="31" spans="1:13" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>91</v>
+        <v>173</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>83</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
+        <v>84</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="G31" s="15"/>
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
@@ -2207,10 +2201,10 @@
     </row>
     <row r="32" spans="1:13" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>83</v>
@@ -2238,10 +2232,10 @@
     </row>
     <row r="33" spans="1:13" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>83</v>
@@ -2267,25 +2261,21 @@
       </c>
       <c r="M33" s="14"/>
     </row>
-    <row r="34" spans="1:13" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>98</v>
+        <v>176</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>83</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C34" s="23"/>
       <c r="D34" s="24" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>14</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="F34" s="15"/>
       <c r="G34" s="15"/>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
@@ -2298,25 +2288,21 @@
       </c>
       <c r="M34" s="14"/>
     </row>
-    <row r="35" spans="1:13" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B35" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="B35" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>83</v>
-      </c>
+      <c r="C35" s="23"/>
       <c r="D35" s="24" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>14</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="F35" s="15"/>
       <c r="G35" s="15"/>
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
@@ -2331,7 +2317,7 @@
     </row>
     <row r="36" spans="1:13" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="B36" s="22" t="s">
         <v>101</v>
@@ -2356,21 +2342,25 @@
       </c>
       <c r="M36" s="14"/>
     </row>
-    <row r="37" spans="1:13" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>181</v>
+        <v>102</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="C37" s="23"/>
+        <v>103</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="D37" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F37" s="15"/>
+        <v>14</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="G37" s="15"/>
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
@@ -2385,10 +2375,10 @@
     </row>
     <row r="38" spans="1:13" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C38" s="23"/>
       <c r="D38" s="24" t="s">
@@ -2412,10 +2402,10 @@
     </row>
     <row r="39" spans="1:13" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>83</v>
@@ -2443,10 +2433,10 @@
     </row>
     <row r="40" spans="1:13" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C40" s="23"/>
       <c r="D40" s="24" t="s">
@@ -2466,14 +2456,16 @@
       <c r="L40" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="M40" s="14"/>
+      <c r="M40" s="14" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="41" spans="1:13" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>83</v>
@@ -2497,16 +2489,17 @@
       <c r="L41" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="M41" s="14"/>
     </row>
     <row r="42" spans="1:13" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="C42" s="23"/>
+        <v>114</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>115</v>
+      </c>
       <c r="D42" s="24" t="s">
         <v>76</v>
       </c>
@@ -2530,10 +2523,10 @@
     </row>
     <row r="43" spans="1:13" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>83</v>
@@ -2542,7 +2535,7 @@
         <v>84</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F43" s="15" t="s">
         <v>14</v>
@@ -2557,16 +2550,17 @@
       <c r="L43" s="15" t="s">
         <v>14</v>
       </c>
+      <c r="M43" s="14" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="44" spans="1:13" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B44" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>115</v>
+        <v>118</v>
+      </c>
+      <c r="B44" s="25"/>
+      <c r="C44" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="D44" s="24" t="s">
         <v>76</v>
@@ -2574,7 +2568,9 @@
       <c r="E44" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="F44" s="15"/>
+      <c r="F44" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="G44" s="15"/>
       <c r="H44" s="16"/>
       <c r="I44" s="16"/>
@@ -2591,11 +2587,9 @@
     </row>
     <row r="45" spans="1:13" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>114</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="B45" s="25"/>
       <c r="C45" s="14" t="s">
         <v>83</v>
       </c>
@@ -2603,7 +2597,7 @@
         <v>84</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="F45" s="15" t="s">
         <v>14</v>
@@ -2618,13 +2612,11 @@
       <c r="L45" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="M45" s="14" t="s">
-        <v>117</v>
-      </c>
+      <c r="M45" s="14"/>
     </row>
     <row r="46" spans="1:13" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B46" s="25"/>
       <c r="C46" s="14" t="s">
@@ -2636,9 +2628,7 @@
       <c r="E46" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="F46" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="F46" s="15"/>
       <c r="G46" s="15"/>
       <c r="H46" s="16"/>
       <c r="I46" s="16"/>
@@ -2655,7 +2645,7 @@
     </row>
     <row r="47" spans="1:13" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B47" s="25"/>
       <c r="C47" s="14" t="s">
@@ -2682,21 +2672,23 @@
       </c>
       <c r="M47" s="14"/>
     </row>
-    <row r="48" spans="1:13" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B48" s="25"/>
       <c r="C48" s="14" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F48" s="15"/>
+        <v>14</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="G48" s="15"/>
       <c r="H48" s="16"/>
       <c r="I48" s="16"/>
@@ -2707,27 +2699,23 @@
       <c r="L48" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="M48" s="14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M48" s="14"/>
+    </row>
+    <row r="49" spans="1:13" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B49" s="25"/>
       <c r="C49" s="14" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>14</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="F49" s="15"/>
       <c r="G49" s="15"/>
       <c r="H49" s="16"/>
       <c r="I49" s="16"/>
@@ -2738,11 +2726,13 @@
       <c r="L49" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="M49" s="14"/>
+      <c r="M49" s="14" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="50" spans="1:13" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B50" s="25"/>
       <c r="C50" s="14" t="s">
@@ -2764,26 +2754,28 @@
         <v>14</v>
       </c>
       <c r="K50" s="16"/>
-      <c r="L50" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="M50" s="14"/>
-    </row>
-    <row r="51" spans="1:13" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L50" s="15"/>
+      <c r="M50" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B51" s="25"/>
       <c r="C51" s="14" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F51" s="15"/>
+        <v>14</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="G51" s="15"/>
       <c r="H51" s="16"/>
       <c r="I51" s="16"/>
@@ -2791,30 +2783,24 @@
         <v>14</v>
       </c>
       <c r="K51" s="16"/>
-      <c r="L51" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="M51" s="14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L51" s="15"/>
+      <c r="M51" s="14"/>
+    </row>
+    <row r="52" spans="1:13" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B52" s="25"/>
       <c r="C52" s="14" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>14</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="F52" s="15"/>
       <c r="G52" s="15"/>
       <c r="H52" s="16"/>
       <c r="I52" s="16"/>
@@ -2829,7 +2815,7 @@
     </row>
     <row r="53" spans="1:13" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B53" s="25"/>
       <c r="C53" s="14" t="s">
@@ -2854,17 +2840,15 @@
       <c r="L53" s="15"/>
       <c r="M53" s="14"/>
     </row>
-    <row r="54" spans="1:13" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B54" s="25"/>
       <c r="C54" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D54" s="24" t="s">
-        <v>76</v>
-      </c>
+      <c r="D54" s="26"/>
       <c r="E54" s="15" t="s">
         <v>53</v>
       </c>
@@ -2883,7 +2867,7 @@
     </row>
     <row r="55" spans="1:13" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B55" s="25"/>
       <c r="C55" s="14" t="s">
@@ -2910,12 +2894,10 @@
     </row>
     <row r="56" spans="1:13" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B56" s="25"/>
-      <c r="C56" s="14" t="s">
-        <v>91</v>
-      </c>
+      <c r="C56" s="14"/>
       <c r="D56" s="26"/>
       <c r="E56" s="15" t="s">
         <v>53</v>
@@ -2933,40 +2915,42 @@
         <v>110</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B57" s="25"/>
       <c r="C57" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D57" s="24" t="s">
-        <v>84</v>
+        <v>132</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>132</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" s="15" t="s">
-        <v>14</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="F57" s="15"/>
       <c r="G57" s="15"/>
       <c r="H57" s="16"/>
       <c r="I57" s="16"/>
-      <c r="J57" s="16" t="s">
-        <v>14</v>
-      </c>
+      <c r="J57" s="16"/>
       <c r="K57" s="16"/>
       <c r="L57" s="15"/>
-      <c r="M57" s="14"/>
-    </row>
-    <row r="58" spans="1:13" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M57" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="42" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B58" s="25"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="26"/>
+      <c r="C58" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>136</v>
+      </c>
       <c r="E58" s="15" t="s">
         <v>53</v>
       </c>
@@ -2978,14 +2962,14 @@
         <v>14</v>
       </c>
       <c r="K58" s="16"/>
-      <c r="L58" s="15"/>
-      <c r="M58" s="14" t="s">
-        <v>110</v>
-      </c>
+      <c r="L58" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M58" s="14"/>
     </row>
     <row r="59" spans="1:13" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B59" s="25"/>
       <c r="C59" s="14" t="s">
@@ -3005,19 +2989,19 @@
       <c r="K59" s="16"/>
       <c r="L59" s="15"/>
       <c r="M59" s="14" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="42" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B60" s="25"/>
       <c r="C60" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D60" s="24" t="s">
-        <v>136</v>
+        <v>140</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>26</v>
       </c>
       <c r="E60" s="15" t="s">
         <v>53</v>
@@ -3030,21 +3014,21 @@
         <v>14</v>
       </c>
       <c r="K60" s="16"/>
-      <c r="L60" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="M60" s="14"/>
-    </row>
-    <row r="61" spans="1:13" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>137</v>
+      <c r="L60" s="15"/>
+      <c r="M60" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="27" t="s">
+        <v>142</v>
       </c>
       <c r="B61" s="25"/>
       <c r="C61" s="14" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="E61" s="15" t="s">
         <v>53</v>
@@ -3053,70 +3037,60 @@
       <c r="G61" s="15"/>
       <c r="H61" s="16"/>
       <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
+      <c r="J61" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="K61" s="16"/>
       <c r="L61" s="15"/>
       <c r="M61" s="14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="27" t="s">
+        <v>145</v>
       </c>
       <c r="B62" s="25"/>
-      <c r="C62" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D62" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>53</v>
-      </c>
+      <c r="C62" s="14"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="15"/>
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
       <c r="H62" s="16"/>
       <c r="I62" s="16"/>
-      <c r="J62" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="K62" s="16"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="L62" s="15"/>
       <c r="M62" s="14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="27" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B63" s="25"/>
-      <c r="C63" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="D63" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>53</v>
-      </c>
+      <c r="C63" s="14"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="15"/>
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
       <c r="H63" s="16"/>
       <c r="I63" s="16"/>
-      <c r="J63" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="K63" s="16"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="L63" s="15"/>
       <c r="M63" s="14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="27" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B64" s="25"/>
       <c r="C64" s="14"/>
@@ -3135,13 +3109,19 @@
         <v>146</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" s="28" customFormat="1" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="B65" s="25"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="26"/>
+        <v>149</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>152</v>
+      </c>
       <c r="E65" s="15"/>
       <c r="F65" s="15"/>
       <c r="G65" s="15"/>
@@ -3152,44 +3132,44 @@
         <v>14</v>
       </c>
       <c r="L65" s="15"/>
-      <c r="M65" s="14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M65" s="14"/>
+    </row>
+    <row r="66" spans="1:13" s="28" customFormat="1" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="B66" s="25"/>
-      <c r="C66" s="14"/>
+        <v>153</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>155</v>
+      </c>
       <c r="D66" s="26"/>
       <c r="E66" s="15"/>
       <c r="F66" s="15"/>
       <c r="G66" s="15"/>
       <c r="H66" s="16"/>
       <c r="I66" s="16"/>
-      <c r="J66" s="16"/>
+      <c r="J66" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="K66" s="16" t="s">
         <v>14</v>
       </c>
       <c r="L66" s="15"/>
       <c r="M66" s="14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" s="28" customFormat="1" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" s="28" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="B67" s="25" t="s">
-        <v>150</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="B67" s="25"/>
       <c r="C67" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D67" s="26" t="s">
-        <v>152</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="D67" s="26"/>
       <c r="E67" s="15"/>
       <c r="F67" s="15"/>
       <c r="G67" s="15"/>
@@ -3200,44 +3180,38 @@
         <v>14</v>
       </c>
       <c r="L67" s="15"/>
-      <c r="M67" s="14"/>
-    </row>
-    <row r="68" spans="1:13" s="28" customFormat="1" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M67" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" s="28" customFormat="1" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="B68" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="C68" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="D68" s="26"/>
+        <v>160</v>
+      </c>
+      <c r="B68" s="25"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="29"/>
       <c r="E68" s="15"/>
       <c r="F68" s="15"/>
       <c r="G68" s="15"/>
       <c r="H68" s="16"/>
       <c r="I68" s="16"/>
-      <c r="J68" s="16" t="s">
-        <v>14</v>
-      </c>
+      <c r="J68" s="16"/>
       <c r="K68" s="16" t="s">
         <v>14</v>
       </c>
       <c r="L68" s="15"/>
       <c r="M68" s="14" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" s="28" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" s="28" customFormat="1" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="27" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B69" s="25"/>
-      <c r="C69" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="D69" s="26"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="30"/>
       <c r="E69" s="15"/>
       <c r="F69" s="15"/>
       <c r="G69" s="15"/>
@@ -3249,16 +3223,16 @@
       </c>
       <c r="L69" s="15"/>
       <c r="M69" s="14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" s="28" customFormat="1" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" s="28" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="27" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B70" s="25"/>
       <c r="C70" s="14"/>
-      <c r="D70" s="29"/>
+      <c r="D70" s="26"/>
       <c r="E70" s="15"/>
       <c r="F70" s="15"/>
       <c r="G70" s="15"/>
@@ -3269,13 +3243,11 @@
         <v>14</v>
       </c>
       <c r="L70" s="15"/>
-      <c r="M70" s="14" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" s="28" customFormat="1" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M70" s="14"/>
+    </row>
+    <row r="71" spans="1:13" s="28" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="27" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B71" s="25"/>
       <c r="C71" s="14"/>
@@ -3291,12 +3263,12 @@
       </c>
       <c r="L71" s="15"/>
       <c r="M71" s="14" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="72" spans="1:13" s="28" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="27" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B72" s="25"/>
       <c r="C72" s="14"/>
@@ -3304,101 +3276,67 @@
       <c r="E72" s="15"/>
       <c r="F72" s="15"/>
       <c r="G72" s="15"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="16" t="s">
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15" t="s">
         <v>14</v>
       </c>
       <c r="L72" s="15"/>
       <c r="M72" s="14"/>
     </row>
-    <row r="73" spans="1:13" s="28" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" s="28" customFormat="1" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="B73" s="25"/>
+        <v>168</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>181</v>
+      </c>
       <c r="C73" s="14"/>
       <c r="D73" s="30"/>
       <c r="E73" s="15"/>
       <c r="F73" s="15"/>
       <c r="G73" s="15"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="16" t="s">
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15" t="s">
         <v>14</v>
       </c>
       <c r="L73" s="15"/>
-      <c r="M73" s="14" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" s="28" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M73" s="14"/>
+    </row>
+    <row r="74" spans="1:13" s="28" customFormat="1" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="B74" s="25"/>
+        <v>179</v>
+      </c>
+      <c r="B74" s="25" t="s">
+        <v>180</v>
+      </c>
       <c r="C74" s="14"/>
       <c r="D74" s="26"/>
       <c r="E74" s="15"/>
       <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
+      <c r="G74" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="H74" s="15"/>
       <c r="I74" s="15"/>
       <c r="J74" s="15"/>
-      <c r="K74" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="K74" s="15"/>
       <c r="L74" s="15"/>
-      <c r="M74" s="14"/>
-    </row>
-    <row r="75" spans="1:13" s="28" customFormat="1" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="B75" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="C75" s="14"/>
-      <c r="D75" s="30"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="L75" s="15"/>
-      <c r="M75" s="14"/>
-    </row>
-    <row r="76" spans="1:13" s="28" customFormat="1" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B76" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="C76" s="14"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="15"/>
-      <c r="L76" s="15"/>
-      <c r="M76" s="14" t="s">
+      <c r="M74" s="14" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="M77" s="33"/>
+    <row r="75" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M75" s="33"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M76" s="34"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M77" s="34"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M78" s="34"/>
@@ -3723,12 +3661,6 @@
     </row>
     <row r="185" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M185" s="34"/>
-    </row>
-    <row r="186" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M186" s="34"/>
-    </row>
-    <row r="187" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M187" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
